--- a/public/template_report/qtn_template.xlsx
+++ b/public/template_report/qtn_template.xlsx
@@ -133,9 +133,6 @@
     <t>Customer ID</t>
   </si>
   <si>
-    <t>Jababeka Phase 2 Cikarang Pusat</t>
-  </si>
-  <si>
     <t>Quotation #</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>New Three in One Building</t>
+  </si>
+  <si>
+    <t>Jababeka Phase 2 Cikarang Utara</t>
   </si>
 </sst>
 </file>
@@ -549,6 +549,9 @@
     <xf numFmtId="42" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,6 +597,9 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,12 +641,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:R4"/>
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1090,43 @@
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="50"/>
       <c r="O2" s="49"/>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="47"/>
       <c r="O3" s="46"/>
       <c r="P3" s="45"/>
@@ -1134,63 +1134,63 @@
       <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="A4" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="1"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
+        <v>33</v>
+      </c>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="A5" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="1"/>
       <c r="K5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="85"/>
+        <v>31</v>
+      </c>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="A6" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="1"/>
       <c r="K6" s="14"/>
       <c r="M6" s="14"/>
@@ -1198,20 +1198,20 @@
         <v>30</v>
       </c>
       <c r="O6" s="55"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
     </row>
     <row r="7" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1220,15 +1220,15 @@
       <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
@@ -1275,65 +1275,65 @@
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
       <c r="N11" s="36"/>
       <c r="O11" s="35"/>
       <c r="P11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="34"/>
       <c r="O12" s="33"/>
       <c r="P12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
     </row>
     <row r="13" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="32"/>
@@ -1392,75 +1392,75 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="81" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
     </row>
     <row r="19" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="26" t="s">
         <v>16</v>
       </c>
@@ -1470,15 +1470,15 @@
       <c r="O19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="71" t="s">
+      <c r="P19" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="71"/>
+      <c r="Q19" s="73"/>
     </row>
     <row r="20" spans="1:22" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
@@ -1491,15 +1491,15 @@
       <c r="M20" s="52"/>
       <c r="N20" s="53"/>
       <c r="O20" s="54"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="1:22" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:22" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,8 +1520,8 @@
       <c r="O22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
       <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,24 +1544,24 @@
       <c r="O23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="16"/>
       <c r="O24" s="21"/>
       <c r="P24" s="16"/>
@@ -1570,19 +1570,19 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -1603,10 +1603,11 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -1688,11 +1689,11 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="N35" s="7"/>
       <c r="O35" s="9"/>
       <c r="P35" s="8"/>
@@ -1703,13 +1704,13 @@
       <c r="U35" s="7"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
       <c r="N36" s="4"/>
       <c r="O36" s="6"/>
       <c r="P36" s="5" t="s">
@@ -1722,57 +1723,57 @@
       <c r="U36" s="4"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="J19:L19"/>
@@ -1808,6 +1809,7 @@
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <dataValidations count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A19:A20"/>

--- a/public/template_report/qtn_template.xlsx
+++ b/public/template_report/qtn_template.xlsx
@@ -552,6 +552,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="11" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,69 +641,6 @@
     </xf>
     <xf numFmtId="42" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="11" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -676,73 +676,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>75284</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>75757</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1656602" cy="740671"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3145" b="30939"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="75284" y="75757"/>
-          <a:ext cx="1656602" cy="740671"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>59900</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -754,7 +687,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -763,7 +696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -780,6 +713,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376698</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>850446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2349734" cy="850446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1052,7 +1029,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1067,43 @@
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="50"/>
       <c r="O2" s="49"/>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="47"/>
       <c r="O3" s="46"/>
       <c r="P3" s="45"/>
@@ -1134,16 +1111,16 @@
       <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="1"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -1151,46 +1128,46 @@
       <c r="N4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
     </row>
     <row r="5" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="1"/>
       <c r="K5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
       <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="1"/>
       <c r="K6" s="14"/>
       <c r="M6" s="14"/>
@@ -1198,20 +1175,20 @@
         <v>30</v>
       </c>
       <c r="O6" s="55"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
     </row>
     <row r="7" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1220,15 +1197,15 @@
       <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
@@ -1275,65 +1252,65 @@
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="36"/>
       <c r="O11" s="35"/>
       <c r="P11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="34"/>
       <c r="O12" s="33"/>
       <c r="P12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
     </row>
     <row r="13" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="32"/>
@@ -1392,75 +1369,75 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="83" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
     </row>
     <row r="19" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="66"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="26" t="s">
         <v>16</v>
       </c>
@@ -1470,15 +1447,15 @@
       <c r="O19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="73" t="s">
+      <c r="P19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="73"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:22" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
@@ -1491,15 +1468,15 @@
       <c r="M20" s="52"/>
       <c r="N20" s="53"/>
       <c r="O20" s="54"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="1:22" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:22" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,8 +1497,8 @@
       <c r="O22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
       <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,24 +1521,24 @@
       <c r="O23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
       <c r="N24" s="16"/>
       <c r="O24" s="21"/>
       <c r="P24" s="16"/>
@@ -1570,19 +1547,19 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -1603,11 +1580,11 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -1689,11 +1666,11 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
       <c r="N35" s="7"/>
       <c r="O35" s="9"/>
       <c r="P35" s="8"/>
@@ -1704,13 +1681,13 @@
       <c r="U35" s="7"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
       <c r="N36" s="4"/>
       <c r="O36" s="6"/>
       <c r="P36" s="5" t="s">
@@ -1723,57 +1700,77 @@
       <c r="U36" s="4"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A41:R41"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="A40:R40"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="J19:L19"/>
@@ -1790,26 +1787,6 @@
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A41:R41"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="A40:R40"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <dataValidations count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A19:A20"/>
